--- a/AutomationUIAPI/src/test/resources/XLS/Suite.xlsx
+++ b/AutomationUIAPI/src/test/resources/XLS/Suite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIG_BACKUP\MyWorkSpace\workspace\Automation_API\src\test\resources\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raghu\MyWorkspace\Workspace\Automation\AutomationUIAPI\src\test\resources\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
